--- a/biology/Zoologie/Aglossa_caprealis/Aglossa_caprealis.xlsx
+++ b/biology/Zoologie/Aglossa_caprealis/Aglossa_caprealis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Aglosse cuivrée (Aglossa caprealis) est une espèce d'insectes lépidoptères (papillons) de la famille des Pyralidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Envergure d'environ 25 mm. Ailes de couleur brun-rouge à pourpre.
 </t>
@@ -542,7 +556,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La chenille de l'Aglosse cuivrée se nourrit de grain (dont le maïs) et de foin. Elle s'abrite dans une galerie soyeuse entre les débris de céréales et chaumes de préférence humides. Elle fréquente les granges, appentis, étables ...
 L'imago vole de juin à août.
